--- a/PyWorld3_Update/Validierung PyWorld3.xlsx
+++ b/PyWorld3_Update/Validierung PyWorld3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\PyWorld3_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A980F0-75B3-4A47-BA6A-FD179C7A2EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C158332B-69B2-4D6C-9B72-9A9B28AD3992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{27704C69-15BF-48EB-BCE6-B43F450D3EAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{27704C69-15BF-48EB-BCE6-B43F450D3EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Szenario 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>Stella</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>pyear_res_tech = 2000, NR</t>
+  </si>
+  <si>
+    <t>sb</t>
   </si>
 </sst>
 </file>
@@ -100,10 +103,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -156,7 +159,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>EF</a:t>
+              <a:t>Ecological Footprint</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -200,7 +203,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Stella</c:v>
+            <c:v>STELLA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1449,7 +1452,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>PyWorld3</c:v>
+            <c:v>PyWorld3-04</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -28998,10 +29001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B995CD00-D817-4FD3-A6F5-5E0C9F4896EB}">
-  <dimension ref="B2:J204"/>
+  <dimension ref="B2:W204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29010,21 +29013,21 @@
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -29044,7 +29047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1900</v>
       </c>
@@ -29070,7 +29073,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1901</v>
       </c>
@@ -29096,7 +29099,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1902</v>
       </c>
@@ -29122,7 +29125,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1903</v>
       </c>
@@ -29148,7 +29151,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1904</v>
       </c>
@@ -29174,7 +29177,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1905</v>
       </c>
@@ -29200,7 +29203,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1906</v>
       </c>
@@ -29226,7 +29229,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1907</v>
       </c>
@@ -29251,8 +29254,11 @@
       <c r="J11">
         <v>0.224</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="W11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1908</v>
       </c>
@@ -29278,7 +29284,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1909</v>
       </c>
@@ -29304,7 +29310,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1910</v>
       </c>
@@ -29330,7 +29336,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1911</v>
       </c>
@@ -29356,7 +29362,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1912</v>
       </c>
@@ -34284,7 +34290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6F8A3D-1E35-4D8A-BD60-7C02B772AB1D}">
   <dimension ref="B2:J204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -34294,18 +34300,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -39567,7 +39573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE24939-CFAE-444E-91C2-D77539AD9DDC}">
   <dimension ref="A2:X205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
@@ -39579,10 +39585,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -39591,16 +39597,16 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="V3" s="2" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="V3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -39708,7 +39714,7 @@
       <c r="W7">
         <v>999425863113</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="2">
         <v>999425863113.48303</v>
       </c>
     </row>
@@ -39737,7 +39743,7 @@
       <c r="W8">
         <v>999121990879</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="2">
         <v>999121990879.04297</v>
       </c>
     </row>
@@ -39766,7 +39772,7 @@
       <c r="W9">
         <v>998805733187</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="2">
         <v>998805733187.11902</v>
       </c>
     </row>
@@ -39795,7 +39801,7 @@
       <c r="W10">
         <v>998477196452</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="2">
         <v>998477196451.69897</v>
       </c>
     </row>
@@ -39824,7 +39830,7 @@
       <c r="W11">
         <v>998136687263</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="2">
         <v>998136687263.14404</v>
       </c>
     </row>
@@ -39853,7 +39859,7 @@
       <c r="W12">
         <v>997784061016</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="2">
         <v>997784061016.28894</v>
       </c>
     </row>
@@ -39882,7 +39888,7 @@
       <c r="W13">
         <v>997419093453</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="2">
         <v>997419093452.66394</v>
       </c>
     </row>
@@ -39911,7 +39917,7 @@
       <c r="W14">
         <v>997041516117</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="2">
         <v>997041516117.26099</v>
       </c>
     </row>
@@ -39940,7 +39946,7 @@
       <c r="W15">
         <v>996651018814</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="2">
         <v>996651018813.86304</v>
       </c>
     </row>
@@ -39969,7 +39975,7 @@
       <c r="W16">
         <v>996247252556</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="2">
         <v>996247252555.68201</v>
       </c>
     </row>
@@ -39998,7 +40004,7 @@
       <c r="W17">
         <v>995829832223</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="2">
         <v>995829832223.02795</v>
       </c>
     </row>
@@ -40027,7 +40033,7 @@
       <c r="W18">
         <v>995398338796</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="2">
         <v>995398338796.073</v>
       </c>
     </row>
@@ -40056,7 +40062,7 @@
       <c r="W19">
         <v>994952321163</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="2">
         <v>994952321162.54004</v>
       </c>
     </row>
@@ -40085,7 +40091,7 @@
       <c r="W20">
         <v>994491296646</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="2">
         <v>994491296882.17102</v>
       </c>
     </row>
@@ -40114,7 +40120,7 @@
       <c r="W21">
         <v>994014732659</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="2">
         <v>994014733982.35095</v>
       </c>
     </row>
@@ -40143,7 +40149,7 @@
       <c r="W22">
         <v>993522060758</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="2">
         <v>993522065024.13599</v>
       </c>
     </row>
@@ -40172,7 +40178,7 @@
       <c r="W23">
         <v>993012686574</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="2">
         <v>993012697030.11694</v>
       </c>
     </row>
@@ -40201,7 +40207,7 @@
       <c r="W24">
         <v>992485990310</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24" s="2">
         <v>992486011980.35205</v>
       </c>
     </row>
@@ -40230,7 +40236,7 @@
       <c r="W25">
         <v>991941326835</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25" s="2">
         <v>991941366892.94202</v>
       </c>
     </row>
@@ -40259,7 +40265,7 @@
       <c r="W26">
         <v>991378028393</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="2">
         <v>991378096583.724</v>
       </c>
     </row>
@@ -40288,7 +40294,7 @@
       <c r="W27">
         <v>990795399554</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="2">
         <v>990795508624.88196</v>
       </c>
     </row>
@@ -40317,7 +40323,7 @@
       <c r="W28">
         <v>990192716169</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28" s="2">
         <v>990192882327.89795</v>
       </c>
     </row>
@@ -40346,7 +40352,7 @@
       <c r="W29">
         <v>989569224596</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="2">
         <v>989569468014.80896</v>
       </c>
     </row>
@@ -40375,7 +40381,7 @@
       <c r="W30">
         <v>988924140884</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X30" s="2">
         <v>988924486237.698</v>
       </c>
     </row>
@@ -40404,7 +40410,7 @@
       <c r="W31">
         <v>988256649880</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X31" s="2">
         <v>988257126924.04504</v>
       </c>
     </row>
@@ -40433,7 +40439,7 @@
       <c r="W32">
         <v>987565904250</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32" s="2">
         <v>987566548451.65601</v>
       </c>
     </row>
@@ -40462,7 +40468,7 @@
       <c r="W33">
         <v>986851023451</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="2">
         <v>986851876658.00098</v>
       </c>
     </row>
@@ -40491,7 +40497,7 @@
       <c r="W34">
         <v>986111092620</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X34" s="2">
         <v>986112203788.07996</v>
       </c>
     </row>
@@ -40520,7 +40526,7 @@
       <c r="W35">
         <v>985345161418</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="2">
         <v>985346587384.20605</v>
       </c>
     </row>
@@ -40549,7 +40555,7 @@
       <c r="W36">
         <v>984552242801</v>
       </c>
-      <c r="X36" s="3">
+      <c r="X36" s="2">
         <v>984554049120.5</v>
       </c>
     </row>
@@ -40578,7 +40584,7 @@
       <c r="W37">
         <v>983731312047</v>
       </c>
-      <c r="X37" s="3">
+      <c r="X37" s="2">
         <v>983733573856.40198</v>
       </c>
     </row>
@@ -40607,7 +40613,7 @@
       <c r="W38">
         <v>982881305681</v>
       </c>
-      <c r="X38" s="3">
+      <c r="X38" s="2">
         <v>982884108658.87305</v>
       </c>
     </row>
@@ -40636,7 +40642,7 @@
       <c r="W39">
         <v>982001119958</v>
       </c>
-      <c r="X39" s="3">
+      <c r="X39" s="2">
         <v>982004561330.37305</v>
       </c>
     </row>
@@ -40665,7 +40671,7 @@
       <c r="W40">
         <v>981089609432</v>
       </c>
-      <c r="X40" s="3">
+      <c r="X40" s="2">
         <v>981093799047.66101</v>
       </c>
     </row>
@@ -40694,7 +40700,7 @@
       <c r="W41">
         <v>980145585485</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X41" s="2">
         <v>980150646961.21106</v>
       </c>
     </row>
@@ -40723,7 +40729,7 @@
       <c r="W42">
         <v>979167814821</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="2">
         <v>979173886756.20105</v>
       </c>
     </row>
@@ -40752,7 +40758,7 @@
       <c r="W43">
         <v>978155017911</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X43" s="2">
         <v>978162255174.04199</v>
       </c>
     </row>
@@ -40781,7 +40787,7 @@
       <c r="W44">
         <v>977105867397</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="2">
         <v>977114442494.01904</v>
       </c>
     </row>
@@ -40810,7 +40816,7 @@
       <c r="W45">
         <v>976018986458</v>
       </c>
-      <c r="X45" s="3">
+      <c r="X45" s="2">
         <v>976029090974.99304</v>
       </c>
     </row>
@@ -40839,7 +40845,7 @@
       <c r="W46">
         <v>974892947124</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X46" s="2">
         <v>974904793257.328</v>
       </c>
     </row>
@@ -40868,7 +40874,7 @@
       <c r="W47">
         <v>973726268557</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X47" s="2">
         <v>973740090725.44604</v>
       </c>
     </row>
@@ -40897,7 +40903,7 @@
       <c r="W48">
         <v>972517415581</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X48" s="2">
         <v>972533474401.80298</v>
       </c>
     </row>
@@ -40926,7 +40932,7 @@
       <c r="W49">
         <v>971265242352</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="2">
         <v>971283886417.69202</v>
       </c>
     </row>
@@ -40955,7 +40961,7 @@
       <c r="W50">
         <v>969968328083</v>
       </c>
-      <c r="X50" s="3">
+      <c r="X50" s="2">
         <v>969989963266.77698</v>
       </c>
     </row>
@@ -40984,7 +40990,7 @@
       <c r="W51">
         <v>968625219714</v>
       </c>
-      <c r="X51" s="3">
+      <c r="X51" s="2">
         <v>968650313054.65503</v>
       </c>
     </row>
@@ -41013,7 +41019,7 @@
       <c r="W52">
         <v>967234388428</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="2">
         <v>967263466973.34595</v>
       </c>
     </row>
@@ -41042,7 +41048,7 @@
       <c r="W53">
         <v>965794243230</v>
       </c>
-      <c r="X53" s="3">
+      <c r="X53" s="2">
         <v>965827894933.76904</v>
       </c>
     </row>
@@ -41071,7 +41077,7 @@
       <c r="W54">
         <v>964303129792</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="2">
         <v>964342004665.89502</v>
       </c>
     </row>
@@ -41100,7 +41106,7 @@
       <c r="W55">
         <v>962759331486</v>
       </c>
-      <c r="X55" s="3">
+      <c r="X55" s="2">
         <v>962804143142.86499</v>
       </c>
     </row>
@@ -41129,7 +41135,7 @@
       <c r="W56">
         <v>961161069038</v>
       </c>
-      <c r="X56" s="3">
+      <c r="X56" s="2">
         <v>961212596440.06897</v>
       </c>
     </row>
@@ -41158,7 +41164,7 @@
       <c r="W57">
         <v>959506499995</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X57" s="2">
         <v>959565589350.23999</v>
       </c>
     </row>
@@ -41187,7 +41193,7 @@
       <c r="W58">
         <v>957793717882</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="2">
         <v>957861284638.09595</v>
       </c>
     </row>
@@ -41216,7 +41222,7 @@
       <c r="W59">
         <v>956020751223</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="2">
         <v>956097782116.68396</v>
       </c>
     </row>
@@ -41245,7 +41251,7 @@
       <c r="W60">
         <v>954185562449</v>
       </c>
-      <c r="X60" s="3">
+      <c r="X60" s="2">
         <v>954273117591.54199</v>
       </c>
     </row>
@@ -41274,7 +41280,7 @@
       <c r="W61">
         <v>952286046739</v>
       </c>
-      <c r="X61" s="3">
+      <c r="X61" s="2">
         <v>952385261724.51196</v>
       </c>
     </row>
@@ -41303,7 +41309,7 @@
       <c r="W62">
         <v>950320030842</v>
       </c>
-      <c r="X62" s="3">
+      <c r="X62" s="2">
         <v>950432118845.10596</v>
       </c>
     </row>
@@ -41332,7 +41338,7 @@
       <c r="W63">
         <v>948285088093</v>
       </c>
-      <c r="X63" s="3">
+      <c r="X63" s="2">
         <v>948411315951.81494</v>
       </c>
     </row>
@@ -41361,7 +41367,7 @@
       <c r="W64">
         <v>946178797857</v>
       </c>
-      <c r="X64" s="3">
+      <c r="X64" s="2">
         <v>946320522173.05701</v>
       </c>
     </row>
@@ -41390,7 +41396,7 @@
       <c r="W65">
         <v>943998674047</v>
       </c>
-      <c r="X65" s="3">
+      <c r="X65" s="2">
         <v>944157324930.62</v>
       </c>
     </row>
@@ -41419,7 +41425,7 @@
       <c r="W66">
         <v>941742186970</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X66" s="2">
         <v>941919278960.75598</v>
       </c>
     </row>
@@ -41448,7 +41454,7 @@
       <c r="W67">
         <v>939406747841</v>
       </c>
-      <c r="X67" s="3">
+      <c r="X67" s="2">
         <v>939603878230.97803</v>
       </c>
     </row>
@@ -41477,7 +41483,7 @@
       <c r="W68">
         <v>936989711617</v>
       </c>
-      <c r="X68" s="3">
+      <c r="X68" s="2">
         <v>937208563775.77295</v>
       </c>
     </row>
@@ -41506,7 +41512,7 @@
       <c r="W69">
         <v>934488372681</v>
       </c>
-      <c r="X69" s="3">
+      <c r="X69" s="2">
         <v>934730716519.83496</v>
       </c>
     </row>
@@ -41535,7 +41541,7 @@
       <c r="W70">
         <v>931899965093</v>
       </c>
-      <c r="X70" s="3">
+      <c r="X70" s="2">
         <v>932167658371.11304</v>
       </c>
     </row>
@@ -41564,7 +41570,7 @@
       <c r="W71">
         <v>929221661419</v>
       </c>
-      <c r="X71" s="3">
+      <c r="X71" s="2">
         <v>929516650042.01501</v>
       </c>
     </row>
@@ -41593,7 +41599,7 @@
       <c r="W72">
         <v>926450560936</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="2">
         <v>926774891825.43604</v>
       </c>
     </row>
@@ -41622,7 +41628,7 @@
       <c r="W73">
         <v>923583730847</v>
       </c>
-      <c r="X73" s="3">
+      <c r="X73" s="2">
         <v>923939600540.53296</v>
       </c>
     </row>
@@ -41651,7 +41657,7 @@
       <c r="W74">
         <v>920618677893</v>
       </c>
-      <c r="X74" s="3">
+      <c r="X74" s="2">
         <v>921008351624.11206</v>
       </c>
     </row>
@@ -41680,7 +41686,7 @@
       <c r="W75">
         <v>917552093299</v>
       </c>
-      <c r="X75" s="3">
+      <c r="X75" s="2">
         <v>917977986992.86694</v>
       </c>
     </row>
@@ -41709,7 +41715,7 @@
       <c r="W76">
         <v>914358789643</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X76" s="2">
         <v>914845438691.31995</v>
       </c>
     </row>
@@ -41738,7 +41744,7 @@
       <c r="W77">
         <v>910999916241</v>
       </c>
-      <c r="X77" s="3">
+      <c r="X77" s="2">
         <v>911607543440.67395</v>
       </c>
     </row>
@@ -41767,7 +41773,7 @@
       <c r="W78">
         <v>907470571766</v>
       </c>
-      <c r="X78" s="3">
+      <c r="X78" s="2">
         <v>908261079524.79504</v>
       </c>
     </row>
@@ -41796,7 +41802,7 @@
       <c r="W79">
         <v>903765647038</v>
       </c>
-      <c r="X79" s="3">
+      <c r="X79" s="2">
         <v>904756154211.82495</v>
       </c>
     </row>
@@ -41825,7 +41831,7 @@
       <c r="W80">
         <v>899879726031</v>
       </c>
-      <c r="X80" s="3">
+      <c r="X80" s="2">
         <v>901077869427.32104</v>
       </c>
     </row>
@@ -41854,7 +41860,7 @@
       <c r="W81">
         <v>895807160956</v>
       </c>
-      <c r="X81" s="3">
+      <c r="X81" s="2">
         <v>897221154769.13794</v>
       </c>
     </row>
@@ -41883,7 +41889,7 @@
       <c r="W82">
         <v>891542104580</v>
       </c>
-      <c r="X82" s="3">
+      <c r="X82" s="2">
         <v>893180602651.06494</v>
       </c>
     </row>
@@ -41912,7 +41918,7 @@
       <c r="W83">
         <v>887078536409</v>
       </c>
-      <c r="X83" s="3">
+      <c r="X83" s="2">
         <v>888950533416.70105</v>
       </c>
     </row>
@@ -41941,7 +41947,7 @@
       <c r="W84">
         <v>882410176321</v>
       </c>
-      <c r="X84" s="3">
+      <c r="X84" s="2">
         <v>884524921255.73596</v>
       </c>
     </row>
@@ -41970,7 +41976,7 @@
       <c r="W85">
         <v>877530451084</v>
       </c>
-      <c r="X85" s="3">
+      <c r="X85" s="2">
         <v>879897418803.09802</v>
       </c>
     </row>
@@ -41999,7 +42005,7 @@
       <c r="W86">
         <v>872432609200</v>
       </c>
-      <c r="X86" s="3">
+      <c r="X86" s="2">
         <v>875061571725.52795</v>
       </c>
     </row>
@@ -42028,7 +42034,7 @@
       <c r="W87">
         <v>867109723211</v>
       </c>
-      <c r="X87" s="3">
+      <c r="X87" s="2">
         <v>870010741574.84802</v>
       </c>
     </row>
@@ -42057,7 +42063,7 @@
       <c r="W88">
         <v>861554764344</v>
       </c>
-      <c r="X88" s="3">
+      <c r="X88" s="2">
         <v>864738007798.17297</v>
       </c>
     </row>
@@ -42086,7 +42092,7 @@
       <c r="W89">
         <v>855760449509</v>
       </c>
-      <c r="X89" s="3">
+      <c r="X89" s="2">
         <v>859236205364.00903</v>
       </c>
     </row>
@@ -42115,7 +42121,7 @@
       <c r="W90">
         <v>849719353626</v>
       </c>
-      <c r="X90" s="3">
+      <c r="X90" s="2">
         <v>853497993006.95105</v>
       </c>
     </row>
@@ -42144,7 +42150,7 @@
       <c r="W91">
         <v>843423939574</v>
       </c>
-      <c r="X91" s="3">
+      <c r="X91" s="2">
         <v>847515845304.32605</v>
       </c>
     </row>
@@ -42173,7 +42179,7 @@
       <c r="W92">
         <v>836866387712</v>
       </c>
-      <c r="X92" s="3">
+      <c r="X92" s="2">
         <v>841282048116.89294</v>
       </c>
     </row>
@@ -42202,7 +42208,7 @@
       <c r="W93">
         <v>830038681342</v>
       </c>
-      <c r="X93" s="3">
+      <c r="X93" s="2">
         <v>834788486929.46204</v>
       </c>
     </row>
@@ -42231,7 +42237,7 @@
       <c r="W94">
         <v>822932684944</v>
       </c>
-      <c r="X94" s="3">
+      <c r="X94" s="2">
         <v>828026778467.54102</v>
       </c>
     </row>
@@ -42260,7 +42266,7 @@
       <c r="W95">
         <v>815540195855</v>
       </c>
-      <c r="X95" s="3">
+      <c r="X95" s="2">
         <v>820988343665.49902</v>
       </c>
     </row>
@@ -42289,7 +42295,7 @@
       <c r="W96">
         <v>807852941196</v>
       </c>
-      <c r="X96" s="3">
+      <c r="X96" s="2">
         <v>813664402041.20996</v>
       </c>
     </row>
@@ -42318,7 +42324,7 @@
       <c r="W97">
         <v>799862710072</v>
       </c>
-      <c r="X97" s="3">
+      <c r="X97" s="2">
         <v>806045971548.81494</v>
       </c>
     </row>
@@ -42347,7 +42353,7 @@
       <c r="W98">
         <v>791561253401</v>
       </c>
-      <c r="X98" s="3">
+      <c r="X98" s="2">
         <v>798123869874.06897</v>
       </c>
     </row>
@@ -42376,7 +42382,7 @@
       <c r="W99">
         <v>782940250948</v>
       </c>
-      <c r="X99" s="3">
+      <c r="X99" s="2">
         <v>789889503444.25195</v>
       </c>
     </row>
@@ -42405,7 +42411,7 @@
       <c r="W100">
         <v>773991232660</v>
       </c>
-      <c r="X100" s="3">
+      <c r="X100" s="2">
         <v>781334057892.83801</v>
       </c>
     </row>
@@ -42434,7 +42440,7 @@
       <c r="W101">
         <v>764705350037</v>
       </c>
-      <c r="X101" s="3">
+      <c r="X101" s="2">
         <v>772448550094.43701</v>
       </c>
     </row>
@@ -42463,7 +42469,7 @@
       <c r="W102">
         <v>755074250348</v>
       </c>
-      <c r="X102" s="3">
+      <c r="X102" s="2">
         <v>763223727926.05798</v>
       </c>
     </row>
@@ -42492,7 +42498,7 @@
       <c r="W103">
         <v>745092072363</v>
       </c>
-      <c r="X103" s="3">
+      <c r="X103" s="2">
         <v>753652038851.08997</v>
       </c>
     </row>
@@ -42521,7 +42527,7 @@
       <c r="W104">
         <v>734754000052</v>
       </c>
-      <c r="X104" s="3">
+      <c r="X104" s="2">
         <v>743728405712.32703</v>
       </c>
     </row>
@@ -42550,7 +42556,7 @@
       <c r="W105">
         <v>724053532614</v>
       </c>
-      <c r="X105" s="3">
+      <c r="X105" s="2">
         <v>733446199597.60901</v>
       </c>
     </row>
@@ -42579,7 +42585,7 @@
       <c r="W106">
         <v>712984316923</v>
       </c>
-      <c r="X106" s="3">
+      <c r="X106" s="2">
         <v>722799514666.31201</v>
       </c>
     </row>
@@ -42608,7 +42614,7 @@
       <c r="W107">
         <v>701539621888</v>
       </c>
-      <c r="X107" s="3">
+      <c r="X107" s="2">
         <v>711782531836.19202</v>
       </c>
     </row>
@@ -42637,7 +42643,7 @@
       <c r="W108">
         <v>689713022518</v>
       </c>
-      <c r="X108" s="3">
+      <c r="X108" s="2">
         <v>700389519265.74194</v>
       </c>
     </row>
@@ -42666,7 +42672,7 @@
       <c r="W109">
         <v>677498302519</v>
       </c>
-      <c r="X109" s="3">
+      <c r="X109" s="2">
         <v>688614802155.75098</v>
       </c>
     </row>
@@ -42695,7 +42701,7 @@
       <c r="W110">
         <v>664889291513</v>
       </c>
-      <c r="X110" s="3">
+      <c r="X110" s="2">
         <v>676453621788.81799</v>
       </c>
     </row>
@@ -42724,7 +42730,7 @@
       <c r="W111">
         <v>651881565219</v>
       </c>
-      <c r="X111" s="3">
+      <c r="X111" s="2">
         <v>663903958610.53101</v>
       </c>
     </row>
@@ -42753,7 +42759,7 @@
       <c r="W112">
         <v>638473368182</v>
       </c>
-      <c r="X112" s="3">
+      <c r="X112" s="2">
         <v>650967287118.67505</v>
       </c>
     </row>
@@ -42782,7 +42788,7 @@
       <c r="W113">
         <v>624665614425</v>
       </c>
-      <c r="X113" s="3">
+      <c r="X113" s="2">
         <v>637647923868.81604</v>
       </c>
     </row>
@@ -42811,7 +42817,7 @@
       <c r="W114">
         <v>610464957410</v>
       </c>
-      <c r="X114" s="3">
+      <c r="X114" s="2">
         <v>623954978070.89294</v>
       </c>
     </row>
@@ -42840,7 +42846,7 @@
       <c r="W115">
         <v>595882336177</v>
       </c>
-      <c r="X115" s="3">
+      <c r="X115" s="2">
         <v>609902148136.53699</v>
       </c>
     </row>
@@ -42869,7 +42875,7 @@
       <c r="W116">
         <v>580978704959</v>
       </c>
-      <c r="X116" s="3">
+      <c r="X116" s="2">
         <v>595506803894.198</v>
       </c>
     </row>
@@ -42898,7 +42904,7 @@
       <c r="W117">
         <v>565897992326</v>
       </c>
-      <c r="X117" s="3">
+      <c r="X117" s="2">
         <v>580840707232.23096</v>
       </c>
     </row>
@@ -42927,7 +42933,7 @@
       <c r="W118">
         <v>550670953623</v>
       </c>
-      <c r="X118" s="3">
+      <c r="X118" s="2">
         <v>566042818151.21802</v>
       </c>
     </row>
@@ -42956,7 +42962,7 @@
       <c r="W119">
         <v>535332232249</v>
       </c>
-      <c r="X119" s="3">
+      <c r="X119" s="2">
         <v>551145663896.28796</v>
       </c>
     </row>
@@ -42985,7 +42991,7 @@
       <c r="W120">
         <v>519919034259</v>
       </c>
-      <c r="X120" s="3">
+      <c r="X120" s="2">
         <v>536185428361.41803</v>
       </c>
     </row>
@@ -43014,7 +43020,7 @@
       <c r="W121">
         <v>504470171196</v>
       </c>
-      <c r="X121" s="3">
+      <c r="X121" s="2">
         <v>521199749577.276</v>
       </c>
     </row>
@@ -43043,7 +43049,7 @@
       <c r="W122">
         <v>489025101797</v>
       </c>
-      <c r="X122" s="3">
+      <c r="X122" s="2">
         <v>506226312450.50702</v>
       </c>
     </row>
@@ -43072,7 +43078,7 @@
       <c r="W123">
         <v>473754799895</v>
       </c>
-      <c r="X123" s="3">
+      <c r="X123" s="2">
         <v>491302547046.10303</v>
       </c>
     </row>
@@ -43101,7 +43107,7 @@
       <c r="W124">
         <v>458747973945</v>
       </c>
-      <c r="X124" s="3">
+      <c r="X124" s="2">
         <v>476565591268.336</v>
       </c>
     </row>
@@ -43130,7 +43136,7 @@
       <c r="W125">
         <v>444041627888</v>
       </c>
-      <c r="X125" s="3">
+      <c r="X125" s="2">
         <v>462118125299.63397</v>
       </c>
     </row>
@@ -43159,7 +43165,7 @@
       <c r="W126">
         <v>429674189466</v>
       </c>
-      <c r="X126" s="3">
+      <c r="X126" s="2">
         <v>447990851415.98297</v>
       </c>
     </row>
@@ -43188,7 +43194,7 @@
       <c r="W127">
         <v>415679231830</v>
       </c>
-      <c r="X127" s="3">
+      <c r="X127" s="2">
         <v>434216166981.69397</v>
       </c>
     </row>
@@ -43217,7 +43223,7 @@
       <c r="W128">
         <v>402085356596</v>
       </c>
-      <c r="X128" s="3">
+      <c r="X128" s="2">
         <v>420821840568.35901</v>
       </c>
     </row>
@@ -43246,7 +43252,7 @@
       <c r="W129">
         <v>388916204077</v>
       </c>
-      <c r="X129" s="3">
+      <c r="X129" s="2">
         <v>407831014805.45398</v>
       </c>
     </row>
@@ -43275,7 +43281,7 @@
       <c r="W130">
         <v>376700163456</v>
       </c>
-      <c r="X130" s="3">
+      <c r="X130" s="2">
         <v>395262308667.26801</v>
       </c>
     </row>
@@ -43304,7 +43310,7 @@
       <c r="W131">
         <v>365486218270</v>
       </c>
-      <c r="X131" s="3">
+      <c r="X131" s="2">
         <v>383337011548.448</v>
       </c>
     </row>
@@ -43333,7 +43339,7 @@
       <c r="W132">
         <v>355220381989</v>
       </c>
-      <c r="X132" s="3">
+      <c r="X132" s="2">
         <v>372366669010.12903</v>
       </c>
     </row>
@@ -43362,7 +43368,7 @@
       <c r="W133">
         <v>345846713658</v>
       </c>
-      <c r="X133" s="3">
+      <c r="X133" s="2">
         <v>362297804621.80902</v>
       </c>
     </row>
@@ -43391,7 +43397,7 @@
       <c r="W134">
         <v>337307860631</v>
       </c>
-      <c r="X134" s="3">
+      <c r="X134" s="2">
         <v>353077275150.539</v>
       </c>
     </row>
@@ -43420,7 +43426,7 @@
       <c r="W135">
         <v>329546167542</v>
       </c>
-      <c r="X135" s="3">
+      <c r="X135" s="2">
         <v>344651381078.06201</v>
       </c>
     </row>
@@ -43449,7 +43455,7 @@
       <c r="W136">
         <v>322504050529</v>
       </c>
-      <c r="X136" s="3">
+      <c r="X136" s="2">
         <v>336965964322.685</v>
       </c>
     </row>
@@ -43478,7 +43484,7 @@
       <c r="W137">
         <v>316125138861</v>
       </c>
-      <c r="X137" s="3">
+      <c r="X137" s="2">
         <v>329967242654.19202</v>
       </c>
     </row>
@@ -43507,7 +43513,7 @@
       <c r="W138">
         <v>310355416281</v>
       </c>
-      <c r="X138" s="3">
+      <c r="X138" s="2">
         <v>323603105682.58899</v>
       </c>
     </row>
@@ -43536,7 +43542,7 @@
       <c r="W139">
         <v>305143812606</v>
       </c>
-      <c r="X139" s="3">
+      <c r="X139" s="2">
         <v>317823502430.86902</v>
       </c>
     </row>
@@ -43565,7 +43571,7 @@
       <c r="W140">
         <v>300442323670</v>
       </c>
-      <c r="X140" s="3">
+      <c r="X140" s="2">
         <v>312581014380.67798</v>
       </c>
     </row>
@@ -43594,7 +43600,7 @@
       <c r="W141">
         <v>296205885068</v>
       </c>
-      <c r="X141" s="3">
+      <c r="X141" s="2">
         <v>307830797614.72101</v>
       </c>
     </row>
@@ -43623,7 +43629,7 @@
       <c r="W142">
         <v>292333398909</v>
       </c>
-      <c r="X142" s="3">
+      <c r="X142" s="2">
         <v>303530558451.784</v>
       </c>
     </row>
@@ -43652,7 +43658,7 @@
       <c r="W143">
         <v>288792064824</v>
       </c>
-      <c r="X143" s="3">
+      <c r="X143" s="2">
         <v>299640612751.78802</v>
       </c>
     </row>
@@ -43681,7 +43687,7 @@
       <c r="W144">
         <v>285515891836</v>
       </c>
-      <c r="X144" s="3">
+      <c r="X144" s="2">
         <v>296118879627.98798</v>
       </c>
     </row>
@@ -43710,7 +43716,7 @@
       <c r="W145">
         <v>282439947600</v>
       </c>
-      <c r="X145" s="3">
+      <c r="X145" s="2">
         <v>292889217726.62598</v>
       </c>
     </row>
@@ -43739,7 +43745,7 @@
       <c r="W146">
         <v>279551937266</v>
       </c>
-      <c r="X146" s="3">
+      <c r="X146" s="2">
         <v>289883315181.65399</v>
       </c>
     </row>
@@ -43768,7 +43774,7 @@
       <c r="W147">
         <v>276839644175</v>
       </c>
-      <c r="X147" s="3">
+      <c r="X147" s="2">
         <v>287055726645.59802</v>
       </c>
     </row>
@@ -43797,7 +43803,7 @@
       <c r="W148">
         <v>274291094327</v>
       </c>
-      <c r="X148" s="3">
+      <c r="X148" s="2">
         <v>284394786746.63397</v>
       </c>
     </row>
@@ -43826,7 +43832,7 @@
       <c r="W149">
         <v>271894688853</v>
       </c>
-      <c r="X149" s="3">
+      <c r="X149" s="2">
         <v>281889014873.047</v>
       </c>
     </row>
@@ -43855,7 +43861,7 @@
       <c r="W150">
         <v>269639305311</v>
       </c>
-      <c r="X150" s="3">
+      <c r="X150" s="2">
         <v>279527374889.43402</v>
       </c>
     </row>
@@ -43884,7 +43890,7 @@
       <c r="W151">
         <v>267514370833</v>
       </c>
-      <c r="X151" s="3">
+      <c r="X151" s="2">
         <v>277299377694.93701</v>
       </c>
     </row>
@@ -43913,7 +43919,7 @@
       <c r="W152">
         <v>265509910497</v>
       </c>
-      <c r="X152" s="3">
+      <c r="X152" s="2">
         <v>275195099862.974</v>
       </c>
     </row>
@@ -43942,7 +43948,7 @@
       <c r="W153">
         <v>263616574570</v>
       </c>
-      <c r="X153" s="3">
+      <c r="X153" s="2">
         <v>273205211816.995</v>
       </c>
     </row>
@@ -43971,7 +43977,7 @@
       <c r="W154">
         <v>261825648299</v>
       </c>
-      <c r="X154" s="3">
+      <c r="X154" s="2">
         <v>271320990509.422</v>
       </c>
     </row>
@@ -44000,7 +44006,7 @@
       <c r="W155">
         <v>260129008860</v>
       </c>
-      <c r="X155" s="3">
+      <c r="X155" s="2">
         <v>269534319460.633</v>
       </c>
     </row>
@@ -44029,7 +44035,7 @@
       <c r="W156">
         <v>258519159517</v>
       </c>
-      <c r="X156" s="3">
+      <c r="X156" s="2">
         <v>267837686716.79401</v>
       </c>
     </row>
@@ -44058,7 +44064,7 @@
       <c r="W157">
         <v>256989211090</v>
       </c>
-      <c r="X157" s="3">
+      <c r="X157" s="2">
         <v>266224159281.728</v>
       </c>
     </row>
@@ -44087,7 +44093,7 @@
       <c r="W158">
         <v>255532848351</v>
       </c>
-      <c r="X158" s="3">
+      <c r="X158" s="2">
         <v>264687355419.82599</v>
       </c>
     </row>
@@ -44116,7 +44122,7 @@
       <c r="W159">
         <v>254144331137</v>
       </c>
-      <c r="X159" s="3">
+      <c r="X159" s="2">
         <v>263221415111.491</v>
       </c>
     </row>
@@ -44145,7 +44151,7 @@
       <c r="W160">
         <v>252818472429</v>
       </c>
-      <c r="X160" s="3">
+      <c r="X160" s="2">
         <v>261820968321.05099</v>
       </c>
     </row>
@@ -44174,7 +44180,7 @@
       <c r="W161">
         <v>251550771377</v>
       </c>
-      <c r="X161" s="3">
+      <c r="X161" s="2">
         <v>260481101919.772</v>
       </c>
     </row>
@@ -44203,7 +44209,7 @@
       <c r="W162">
         <v>250337304566</v>
       </c>
-      <c r="X162" s="3">
+      <c r="X162" s="2">
         <v>259197347900.233</v>
       </c>
     </row>
@@ -44232,7 +44238,7 @@
       <c r="W163">
         <v>249174433600</v>
       </c>
-      <c r="X163" s="3">
+      <c r="X163" s="2">
         <v>257965679358.86099</v>
       </c>
     </row>
@@ -44261,7 +44267,7 @@
       <c r="W164">
         <v>248058856946</v>
       </c>
-      <c r="X164" s="3">
+      <c r="X164" s="2">
         <v>256782455340.14899</v>
       </c>
     </row>
@@ -44290,7 +44296,7 @@
       <c r="W165">
         <v>246987581965</v>
       </c>
-      <c r="X165" s="3">
+      <c r="X165" s="2">
         <v>255644616606.95401</v>
       </c>
     </row>
@@ -44319,7 +44325,7 @@
       <c r="W166">
         <v>245957894089</v>
       </c>
-      <c r="X166" s="3">
+      <c r="X166" s="2">
         <v>254549465203.71301</v>
       </c>
     </row>
@@ -44348,7 +44354,7 @@
       <c r="W167">
         <v>244967324883</v>
       </c>
-      <c r="X167" s="3">
+      <c r="X167" s="2">
         <v>253494494401.70099</v>
       </c>
     </row>
@@ -44377,7 +44383,7 @@
       <c r="W168">
         <v>244013627212</v>
       </c>
-      <c r="X168" s="3">
+      <c r="X168" s="2">
         <v>252477421981.375</v>
       </c>
     </row>
@@ -44406,7 +44412,7 @@
       <c r="W169">
         <v>243094752709</v>
       </c>
-      <c r="X169" s="3">
+      <c r="X169" s="2">
         <v>251496170260.897</v>
       </c>
     </row>
@@ -44435,7 +44441,7 @@
       <c r="W170">
         <v>242208830766</v>
       </c>
-      <c r="X170" s="3">
+      <c r="X170" s="2">
         <v>250548845017.63901</v>
       </c>
     </row>
@@ -44464,7 +44470,7 @@
       <c r="W171">
         <v>241354149767</v>
       </c>
-      <c r="X171" s="3">
+      <c r="X171" s="2">
         <v>249633715653.28601</v>
       </c>
     </row>
@@ -44493,7 +44499,7 @@
       <c r="W172">
         <v>240529140278</v>
       </c>
-      <c r="X172" s="3">
+      <c r="X172" s="2">
         <v>248749197080.69101</v>
       </c>
     </row>
@@ -44522,7 +44528,7 @@
       <c r="W173">
         <v>239732360020</v>
       </c>
-      <c r="X173" s="3">
+      <c r="X173" s="2">
         <v>247893833768.59</v>
       </c>
     </row>
@@ -44551,7 +44557,7 @@
       <c r="W174">
         <v>238962480454</v>
       </c>
-      <c r="X174" s="3">
+      <c r="X174" s="2">
         <v>247066285637.44</v>
       </c>
     </row>
@@ -44580,7 +44586,7 @@
       <c r="W175">
         <v>238218274874</v>
       </c>
-      <c r="X175" s="3">
+      <c r="X175" s="2">
         <v>246265315591.46701</v>
       </c>
     </row>
@@ -44609,7 +44615,7 @@
       <c r="W176">
         <v>237498607789</v>
       </c>
-      <c r="X176" s="3">
+      <c r="X176" s="2">
         <v>245489778502.54001</v>
       </c>
     </row>
@@ -44638,7 +44644,7 @@
       <c r="W177">
         <v>236802425482</v>
       </c>
-      <c r="X177" s="3">
+      <c r="X177" s="2">
         <v>244738611501.66501</v>
       </c>
     </row>
@@ -44667,7 +44673,7 @@
       <c r="W178">
         <v>236128747663</v>
       </c>
-      <c r="X178" s="3">
+      <c r="X178" s="2">
         <v>244010825432.97</v>
       </c>
     </row>
@@ -44696,7 +44702,7 @@
       <c r="W179">
         <v>235476660041</v>
       </c>
-      <c r="X179" s="3">
+      <c r="X179" s="2">
         <v>243305497296.63501</v>
       </c>
     </row>
@@ -44725,7 +44731,7 @@
       <c r="W180">
         <v>234845307714</v>
       </c>
-      <c r="X180" s="3">
+      <c r="X180" s="2">
         <v>242621763574.992</v>
       </c>
     </row>
@@ -44754,7 +44760,7 @@
       <c r="W181">
         <v>234233889308</v>
       </c>
-      <c r="X181" s="3">
+      <c r="X181" s="2">
         <v>241958814339.522</v>
       </c>
     </row>
@@ -44783,7 +44789,7 @@
       <c r="W182">
         <v>233641678006</v>
       </c>
-      <c r="X182" s="3">
+      <c r="X182" s="2">
         <v>241315888050.77301</v>
       </c>
     </row>
@@ -44812,7 +44818,7 @@
       <c r="W183">
         <v>233068015739</v>
       </c>
-      <c r="X183" s="3">
+      <c r="X183" s="2">
         <v>240692267024.67499</v>
       </c>
     </row>
@@ -44841,7 +44847,7 @@
       <c r="W184">
         <v>232512264736</v>
       </c>
-      <c r="X184" s="3">
+      <c r="X184" s="2">
         <v>240087273341.97699</v>
       </c>
     </row>
@@ -44870,7 +44876,7 @@
       <c r="W185">
         <v>231973819936</v>
       </c>
-      <c r="X185" s="3">
+      <c r="X185" s="2">
         <v>239500265244.14099</v>
       </c>
     </row>
@@ -44899,7 +44905,7 @@
       <c r="W186">
         <v>231452106503</v>
       </c>
-      <c r="X186" s="3">
+      <c r="X186" s="2">
         <v>238930636878.642</v>
       </c>
     </row>
@@ -44928,7 +44934,7 @@
       <c r="W187">
         <v>230946577030</v>
       </c>
-      <c r="X187" s="3">
+      <c r="X187" s="2">
         <v>238377868075.30499</v>
       </c>
     </row>
@@ -44957,7 +44963,7 @@
       <c r="W188">
         <v>230456709248</v>
       </c>
-      <c r="X188" s="3">
+      <c r="X188" s="2">
         <v>237841439527.366</v>
       </c>
     </row>
@@ -44986,7 +44992,7 @@
       <c r="W189">
         <v>229982003896</v>
       </c>
-      <c r="X189" s="3">
+      <c r="X189" s="2">
         <v>237320851650.211</v>
       </c>
     </row>
@@ -45015,7 +45021,7 @@
       <c r="W190">
         <v>229521982839</v>
       </c>
-      <c r="X190" s="3">
+      <c r="X190" s="2">
         <v>236815625320.073</v>
       </c>
     </row>
@@ -45044,7 +45050,7 @@
       <c r="W191">
         <v>229076187418</v>
       </c>
-      <c r="X191" s="3">
+      <c r="X191" s="2">
         <v>236325300504.996</v>
       </c>
     </row>
@@ -45073,7 +45079,7 @@
       <c r="W192">
         <v>228644177214</v>
       </c>
-      <c r="X192" s="3">
+      <c r="X192" s="2">
         <v>235849434842.29501</v>
       </c>
     </row>
@@ -45102,7 +45108,7 @@
       <c r="W193">
         <v>228225529522</v>
       </c>
-      <c r="X193" s="3">
+      <c r="X193" s="2">
         <v>235387603191.267</v>
       </c>
     </row>
@@ -45131,7 +45137,7 @@
       <c r="W194">
         <v>227819837759</v>
       </c>
-      <c r="X194" s="3">
+      <c r="X194" s="2">
         <v>234939396316.27499</v>
       </c>
     </row>
@@ -45160,7 +45166,7 @@
       <c r="W195">
         <v>227426710292</v>
       </c>
-      <c r="X195" s="3">
+      <c r="X195" s="2">
         <v>234504419635.51599</v>
       </c>
     </row>
@@ -45189,7 +45195,7 @@
       <c r="W196">
         <v>227045769444</v>
       </c>
-      <c r="X196" s="3">
+      <c r="X196" s="2">
         <v>234082292218.401</v>
       </c>
     </row>
@@ -45218,7 +45224,7 @@
       <c r="W197">
         <v>226676650614</v>
       </c>
-      <c r="X197" s="3">
+      <c r="X197" s="2">
         <v>233672645921.871</v>
       </c>
     </row>
@@ -45247,7 +45253,7 @@
       <c r="W198">
         <v>226319001723</v>
       </c>
-      <c r="X198" s="3">
+      <c r="X198" s="2">
         <v>233275124624.80801</v>
       </c>
     </row>
@@ -45276,7 +45282,7 @@
       <c r="W199">
         <v>225972482814</v>
       </c>
-      <c r="X199" s="3">
+      <c r="X199" s="2">
         <v>232889383547.44199</v>
       </c>
     </row>
@@ -45305,7 +45311,7 @@
       <c r="W200">
         <v>225636765121</v>
       </c>
-      <c r="X200" s="3">
+      <c r="X200" s="2">
         <v>232515088643.85101</v>
       </c>
     </row>
@@ -45334,7 +45340,7 @@
       <c r="W201">
         <v>225311530172</v>
       </c>
-      <c r="X201" s="3">
+      <c r="X201" s="2">
         <v>232151916834.92599</v>
       </c>
     </row>
@@ -45363,7 +45369,7 @@
       <c r="W202">
         <v>224996469350</v>
       </c>
-      <c r="X202" s="3">
+      <c r="X202" s="2">
         <v>231799555408.65701</v>
       </c>
     </row>
@@ -45392,7 +45398,7 @@
       <c r="W203">
         <v>224691283444</v>
       </c>
-      <c r="X203" s="3">
+      <c r="X203" s="2">
         <v>231457701073.95801</v>
       </c>
     </row>
@@ -45421,7 +45427,7 @@
       <c r="W204">
         <v>224395681739</v>
       </c>
-      <c r="X204" s="3">
+      <c r="X204" s="2">
         <v>231126059392.04999</v>
       </c>
     </row>
@@ -45441,7 +45447,7 @@
       <c r="W205">
         <v>224109381554</v>
       </c>
-      <c r="X205" s="3">
+      <c r="X205" s="2">
         <v>230804344403.418</v>
       </c>
     </row>
